--- a/@DataTable/DataTable_4000_Skill.xlsx
+++ b/@DataTable/DataTable_4000_Skill.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1892FDB8-FD03-4B02-AC3A-80A11EE339E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD74A06-B74A-4BEC-B601-2F7B3F2D2BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="3465" windowWidth="28110" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JsonTable" sheetId="1" r:id="rId1"/>
+    <sheet name="Skill" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillLevel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원형범위 내의 적의 수에 따라 범위 내의 적에게 피해\n4명 이하:\n5명-9명:\n10명 이상:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OverrideCommonIconName : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +67,79 @@
   </si>
   <si>
     <t>..\@UnityProject\Assets\@MyProject\Resources\Data\DataTable_4000_Skill.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..\@UnityProject\Assets\@MyProject\Resources\Data\DataTable_5000_SkillLevel.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionSequence : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id : Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4002, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형범위 내의 적의 수에 따라 범위 내의 적에게 대미지
+4명 이하:
+5명-9명:
+10명 이상:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(범위 10% 증가)
+원형범위 내의 적의 수에 따라 범위 내의 적에게 대미지
+4명 이하:
+5명-9명:
+10명 이상:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+3 추가 포탄)
+원형범위 내의 적의 수에 따라 범위 내의 적에게 대미지
+4명 이하:
+5명-9명:
+10명 이상:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+쿨타임 감소 10%)원형범위 내의 적의 수에 따라 범위 내의 적에게 대미지
+4명 이하:
+5명-9명:
+10명 이상:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+포탄 탄종 변경 밑 마무리 공격 강화)원형범위 내의 적의 수에 따라 범위 내의 적에게 대미지
+4명 이하:
+5명-9명:
+10명 이상:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,9 +192,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -144,13 +217,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:D4" totalsRowShown="0">
-  <autoFilter ref="A2:D4" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:C4" totalsRowShown="0">
+  <autoFilter ref="A2:C4" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
-    <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="Description : String"/>
     <tableColumn id="4" xr3:uid="{539F4DF8-87A9-4BCD-8D22-ED44639C99FF}" name="OverrideCommonIconName : String"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}" name="표1_3" displayName="표1_3" ref="A2:C8" totalsRowShown="0">
+  <autoFilter ref="A2:C8" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{939311DF-4C1C-43F5-8CFF-556A6D624696}" name="Id : Array"/>
+    <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String"/>
+    <tableColumn id="4" xr3:uid="{4354907A-D516-490F-BD5D-85A7CE5E3EDE}" name="ActionSequence : String"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -419,25 +503,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="83.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -445,13 +529,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4001</v>
       </c>
@@ -459,24 +540,18 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4002</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -490,4 +565,95 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA7F770-9D01-454C-B1B2-A1E2D37A8ECF}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="83.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="../@UnityProject\Assets\@MyProject\Resources\Data/SchoolTable.json" xr:uid="{FC13571B-36C4-41E9-903E-D0147C615B7C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>